--- a/Диаграмма Ганта распределения нагрузки.xlsx
+++ b/Диаграмма Ганта распределения нагрузки.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="16212" windowHeight="5808"/>
@@ -36,9 +36,6 @@
     <t>Диаграмма деятельности</t>
   </si>
   <si>
-    <t>Диаграммы последовательности</t>
-  </si>
-  <si>
     <t>Диаграммы коммуникаций</t>
   </si>
   <si>
@@ -133,13 +130,16 @@
   </si>
   <si>
     <t>Use case - диаграмма</t>
+  </si>
+  <si>
+    <t>Диаграммы  последовательности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,19 +272,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -293,14 +282,13 @@
           <c:yMode val="edge"/>
           <c:x val="0.22480809363469356"/>
           <c:y val="0.11517731407481038"/>
-          <c:w val="0.74655123661426048"/>
-          <c:h val="0.88495436155928375"/>
+          <c:w val="0.7465512366142607"/>
+          <c:h val="0.88495436155928364"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -320,7 +308,6 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$3:$B$33</c:f>
@@ -360,7 +347,7 @@
                   <c:v>ER диаграмма</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Диаграммы последовательности</c:v>
+                  <c:v>Диаграммы  последовательности</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Диаграмма классов</c:v>
@@ -426,7 +413,7 @@
             <c:numRef>
               <c:f>Лист1!$C$4:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43520</c:v>
@@ -536,11 +523,8 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -554,8 +538,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
@@ -564,8 +546,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -574,8 +554,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -584,8 +562,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -594,8 +570,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -604,8 +578,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -614,8 +586,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -624,8 +594,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -634,8 +602,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -644,8 +610,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -654,8 +618,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -664,8 +626,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -674,8 +634,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -684,8 +642,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -694,8 +650,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -704,8 +658,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -714,8 +666,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -724,8 +674,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -734,8 +682,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -744,8 +690,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -754,8 +698,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -764,8 +706,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -774,8 +714,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -784,8 +722,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -794,8 +730,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
@@ -804,8 +738,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -814,8 +746,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -829,8 +759,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -839,8 +767,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
@@ -886,7 +812,7 @@
                   <c:v>ER диаграмма</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Диаграммы последовательности</c:v>
+                  <c:v>Диаграммы  последовательности</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Диаграмма классов</c:v>
@@ -1051,28 +977,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="40"/>
         <c:overlap val="100"/>
-        <c:axId val="203727232"/>
-        <c:axId val="203728768"/>
+        <c:axId val="132728320"/>
+        <c:axId val="132755456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203727232"/>
+        <c:axId val="132728320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1084,25 +1000,21 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203728768"/>
+        <c:crossAx val="132755456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203728768"/>
+        <c:axId val="132755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43515"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -1114,7 +1026,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203727232"/>
+        <c:crossAx val="132728320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -1123,11 +1035,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1748,7 +1659,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1783,7 +1693,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1959,14 +1868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="53.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
@@ -1975,7 +1884,7 @@
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1989,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.6">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2006,12 +1915,12 @@
         <v>43520</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.6">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
         <v>43520</v>
@@ -2023,12 +1932,12 @@
         <v>43524</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.6">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>43524</v>
@@ -2040,12 +1949,12 @@
         <v>43526</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.6">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>43526</v>
@@ -2057,12 +1966,12 @@
         <v>43529</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.6">
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="12">
         <v>43527</v>
@@ -2074,12 +1983,12 @@
         <v>43529</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.6">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>43528</v>
@@ -2091,12 +2000,12 @@
         <v>43530</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.6">
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>43532</v>
@@ -2108,10 +2017,10 @@
         <v>43533</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.6">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2125,12 +2034,12 @@
         <v>43536</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.6">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>43534</v>
@@ -2142,12 +2051,12 @@
         <v>43537</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.6">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>43534</v>
@@ -2159,12 +2068,12 @@
         <v>43537</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.6">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>43539</v>
@@ -2176,12 +2085,12 @@
         <v>43541</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.6">
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>43539</v>
@@ -2193,12 +2102,12 @@
         <v>43542</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.6">
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
         <v>43544</v>
@@ -2210,12 +2119,12 @@
         <v>43547</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.6">
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3">
         <v>43545</v>
@@ -2227,12 +2136,12 @@
         <v>43547</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6">
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6">
         <v>43547</v>
@@ -2244,12 +2153,12 @@
         <v>43549</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.6">
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
         <v>43551</v>
@@ -2261,12 +2170,12 @@
         <v>43556</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.6">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <v>43560</v>
@@ -2278,12 +2187,12 @@
         <v>43563</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6">
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
         <v>43565</v>
@@ -2295,12 +2204,12 @@
         <v>43567</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.6">
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>43570</v>
@@ -2312,12 +2221,12 @@
         <v>43572</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.6">
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>43570</v>
@@ -2329,12 +2238,12 @@
         <v>43572</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.6">
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
         <v>43573</v>
@@ -2346,12 +2255,12 @@
         <v>43579</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.6">
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
         <v>43574</v>
@@ -2363,12 +2272,12 @@
         <v>43580</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.6">
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="8">
         <v>43579</v>
@@ -2380,12 +2289,12 @@
         <v>43583</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.6">
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9">
         <v>43586</v>
@@ -2397,12 +2306,12 @@
         <v>43591</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.6">
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="9">
         <v>43593</v>
@@ -2414,12 +2323,12 @@
         <v>43599</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.6">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9">
         <v>43600</v>
@@ -2431,12 +2340,12 @@
         <v>43604</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.6">
       <c r="B29" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="9">
         <v>43606</v>
@@ -2448,12 +2357,12 @@
         <v>43609</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.6">
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9">
         <v>43608</v>
@@ -2465,12 +2374,12 @@
         <v>43612</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.6">
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="12">
         <v>43609</v>
@@ -2482,12 +2391,12 @@
         <v>43611</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.6">
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="9">
         <v>43611</v>
@@ -2499,12 +2408,12 @@
         <v>43616</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6">
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="9">
         <v>43612</v>
@@ -2516,10 +2425,10 @@
         <v>43617</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.6">
       <c r="B35" s="4"/>
     </row>
   </sheetData>
@@ -2530,24 +2439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
